--- a/doc/02-1 原始需求记录表.xlsx
+++ b/doc/02-1 原始需求记录表.xlsx
@@ -1,53 +1,111 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="242" yWindow="109" windowWidth="14799" windowHeight="8011"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="原始需求记录表" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+  <si>
+    <t>需求概述</t>
+  </si>
   <si>
     <t>来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求概述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>基本操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>需求分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行简单的登录功能</t>
+  </si>
+  <si>
+    <t>明确的性能需求</t>
+  </si>
+  <si>
+    <t>用户可直接输入用户名和密码点击验证登录</t>
+  </si>
+  <si>
+    <t>常规需求</t>
+  </si>
+  <si>
+    <t>可进行签到功能</t>
+  </si>
+  <si>
+    <t>与用户交流</t>
+  </si>
+  <si>
+    <t>在进行登录用户之后可在签到模块进行签到功能</t>
+  </si>
+  <si>
+    <t>补签功能</t>
+  </si>
+  <si>
+    <t>竞争对手产品分析</t>
+  </si>
+  <si>
+    <t>在签到途中漏签或者迟到晚签时可以进行补签功能。</t>
+  </si>
+  <si>
+    <t>信息查询功能</t>
+  </si>
+  <si>
+    <t>登录用户后可以进行用户信息查询</t>
+  </si>
+  <si>
+    <t>学号查询功能</t>
+  </si>
+  <si>
+    <t>在用户登录后点击查询模块，点击选项菜单栏，选择学号查询可进行查询。</t>
+  </si>
+  <si>
+    <t>姓名查询功能</t>
+  </si>
+  <si>
+    <t>登录用户后点击信息查询模块，点击选项菜单栏可选择姓名查询，查询信息。</t>
+  </si>
+  <si>
+    <t>专业查询功能</t>
+  </si>
+  <si>
+    <t>登录用户后点击信息查询模块，点击选项菜单栏可选择专业查询，查询信息。</t>
+  </si>
+  <si>
+    <t>删除功能</t>
+  </si>
+  <si>
+    <t>产品分析</t>
+  </si>
+  <si>
+    <t>登录管理员用户可以删除或修改其他用户信息</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -55,11 +113,161 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -74,12 +282,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -89,35 +483,324 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -408,33 +1091,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:H17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9:R9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.55" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="10.4416666666667" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -454,16 +1137,22 @@
       </c>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:18">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -471,19 +1160,27 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A3" s="3"/>
+    <row r="3" spans="1:18">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -491,19 +1188,27 @@
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R3" s="3"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A4" s="3"/>
+    <row r="4" spans="1:18">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -511,19 +1216,27 @@
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R4" s="3"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
+    <row r="5" spans="1:18">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -531,19 +1244,27 @@
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R5" s="3"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:18">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -551,19 +1272,27 @@
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
+      <c r="Q6" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R6" s="3"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:18">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -571,19 +1300,27 @@
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R7" s="3"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:18">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -591,19 +1328,27 @@
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="Q8" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R8" s="3"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:18">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -611,10 +1356,12 @@
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="R9" s="3"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -634,7 +1381,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -654,7 +1401,7 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -674,7 +1421,7 @@
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -694,7 +1441,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -714,7 +1461,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -734,7 +1481,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -754,7 +1501,7 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -774,7 +1521,7 @@
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -794,7 +1541,7 @@
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -814,7 +1561,7 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -834,7 +1581,7 @@
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -854,7 +1601,7 @@
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -874,7 +1621,7 @@
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -894,7 +1641,7 @@
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -914,7 +1661,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -934,7 +1681,7 @@
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -954,7 +1701,7 @@
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -974,7 +1721,7 @@
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -994,7 +1741,7 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1014,7 +1761,7 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1034,7 +1781,7 @@
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1054,7 +1801,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1074,7 +1821,7 @@
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1094,7 +1841,7 @@
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1114,7 +1861,7 @@
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1134,7 +1881,7 @@
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1154,7 +1901,7 @@
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1174,7 +1921,7 @@
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1194,7 +1941,7 @@
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1214,7 +1961,7 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1236,6 +1983,158 @@
     </row>
   </sheetData>
   <mergeCells count="160">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:P2"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="I6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="I8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="I10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="I11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="I12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="I13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:P20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:P21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:P26"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="I29:P29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:H30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:H32"/>
+    <mergeCell ref="I32:P32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="I33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:P35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="I37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:H38"/>
+    <mergeCell ref="I38:P38"/>
+    <mergeCell ref="Q38:R38"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="I39:P39"/>
@@ -1244,161 +2143,9 @@
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="I40:P40"/>
     <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="I37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="E38:H38"/>
-    <mergeCell ref="I38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:P35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="E36:H36"/>
-    <mergeCell ref="I36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="E33:H33"/>
-    <mergeCell ref="I33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="E31:H31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E32:H32"/>
-    <mergeCell ref="I32:P32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="I29:P29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:H30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:P26"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:H23"/>
-    <mergeCell ref="I23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="E24:H24"/>
-    <mergeCell ref="I24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:P21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="I22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="I19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:P20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="I15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="I16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="I13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="I11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="I12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="I8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="I6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:P2"/>
-    <mergeCell ref="Q2:R2"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/02-1 原始需求记录表.xlsx
+++ b/doc/02-1 原始需求记录表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="24795" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="原始需求记录表" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>需求概述</t>
   </si>
@@ -37,7 +37,7 @@
     <t>用户可直接输入用户名和密码点击验证登录</t>
   </si>
   <si>
-    <t>常规需求</t>
+    <t>必要需求</t>
   </si>
   <si>
     <t>可进行签到功能</t>
@@ -49,6 +49,9 @@
     <t>在进行登录用户之后可在签到模块进行签到功能</t>
   </si>
   <si>
+    <t>一般需求</t>
+  </si>
+  <si>
     <t>补签功能</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>登录用户后可以进行用户信息查询</t>
+  </si>
+  <si>
+    <t>紧急需求</t>
   </si>
   <si>
     <t>学号查询功能</t>
@@ -101,7 +107,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,28 +122,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -146,14 +130,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,6 +144,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -174,23 +166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -207,14 +192,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -230,31 +229,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,31 +287,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,151 +443,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,43 +490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,8 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -564,18 +525,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,151 +578,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,25 +1182,25 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R3" s="3"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -1217,13 +1210,13 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R4" s="3"/>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1235,7 +1228,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -1245,13 +1238,13 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="R5" s="3"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1263,7 +1256,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1273,13 +1266,13 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R6" s="3"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1291,7 +1284,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1301,13 +1294,13 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R7" s="3"/>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1319,7 +1312,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -1329,25 +1322,25 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R8" s="3"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -1357,7 +1350,7 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="R9" s="3"/>
     </row>
